--- a/natmiOut/OldD4/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Itga3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H2">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I2">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J2">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.570384905948909</v>
+        <v>11.451657</v>
       </c>
       <c r="N2">
-        <v>8.570384905948909</v>
+        <v>34.354971</v>
       </c>
       <c r="O2">
-        <v>0.6994370645599617</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P2">
-        <v>0.6994370645599617</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q2">
-        <v>0.7724853309346538</v>
+        <v>1.129774672992</v>
       </c>
       <c r="R2">
-        <v>0.7724853309346538</v>
+        <v>10.167972056928</v>
       </c>
       <c r="S2">
-        <v>0.007542917460878497</v>
+        <v>0.006908807573744576</v>
       </c>
       <c r="T2">
-        <v>0.007542917460878497</v>
+        <v>0.01119985774472643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H3">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I3">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J3">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.486649506573794</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N3">
-        <v>0.486649506573794</v>
+        <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03971591778932378</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P3">
-        <v>0.03971591778932378</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q3">
-        <v>0.04386379483072009</v>
+        <v>0.05169715806933333</v>
       </c>
       <c r="R3">
-        <v>0.04386379483072009</v>
+        <v>0.465274422624</v>
       </c>
       <c r="S3">
-        <v>0.0004283071414815239</v>
+        <v>0.000316138895435311</v>
       </c>
       <c r="T3">
-        <v>0.0004283071414815239</v>
+        <v>0.0005124922960520901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H4">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I4">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J4">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.19622658865231</v>
+        <v>0.123396</v>
       </c>
       <c r="N4">
-        <v>3.19622658865231</v>
+        <v>0.370188</v>
       </c>
       <c r="O4">
-        <v>0.2608470176507144</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P4">
-        <v>0.2608470176507144</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q4">
-        <v>0.2880895293703087</v>
+        <v>0.012173755776</v>
       </c>
       <c r="R4">
-        <v>0.2880895293703087</v>
+        <v>0.109563801984</v>
       </c>
       <c r="S4">
-        <v>0.002813044409211432</v>
+        <v>7.444505361711285E-05</v>
       </c>
       <c r="T4">
-        <v>0.002813044409211432</v>
+        <v>0.0001206827663689423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.18511164293208</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H5">
-        <v>0.18511164293208</v>
+        <v>0.295968</v>
       </c>
       <c r="I5">
-        <v>0.02214800097390169</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J5">
-        <v>0.02214800097390169</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>8.570384905948909</v>
+        <v>0.104921</v>
       </c>
       <c r="N5">
-        <v>8.570384905948909</v>
+        <v>0.314763</v>
       </c>
       <c r="O5">
-        <v>0.6994370645599617</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P5">
-        <v>0.6994370645599617</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q5">
-        <v>1.586478030500502</v>
+        <v>0.010351086176</v>
       </c>
       <c r="R5">
-        <v>1.586478030500502</v>
+        <v>0.093159775584</v>
       </c>
       <c r="S5">
-        <v>0.01549113278705697</v>
+        <v>6.329904916335292E-05</v>
       </c>
       <c r="T5">
-        <v>0.01549113278705697</v>
+        <v>0.0001026139950257366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.18511164293208</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H6">
-        <v>0.18511164293208</v>
+        <v>0.295968</v>
       </c>
       <c r="I6">
-        <v>0.02214800097390169</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J6">
-        <v>0.02214800097390169</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.486649506573794</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N6">
-        <v>0.486649506573794</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O6">
-        <v>0.03971591778932378</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P6">
-        <v>0.03971591778932378</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q6">
-        <v>0.09008448969396107</v>
+        <v>0.4464865219680001</v>
       </c>
       <c r="R6">
-        <v>0.09008448969396107</v>
+        <v>2.678919131808001</v>
       </c>
       <c r="S6">
-        <v>0.0008796281858773424</v>
+        <v>0.002730358130952043</v>
       </c>
       <c r="T6">
-        <v>0.0008796281858773424</v>
+        <v>0.002950786353256408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H7">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I7">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J7">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.19622658865231</v>
+        <v>11.451657</v>
       </c>
       <c r="N7">
-        <v>3.19622658865231</v>
+        <v>34.354971</v>
       </c>
       <c r="O7">
-        <v>0.2608470176507144</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P7">
-        <v>0.2608470176507144</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q7">
-        <v>0.5916587550086265</v>
+        <v>2.677107297956</v>
       </c>
       <c r="R7">
-        <v>0.5916587550086265</v>
+        <v>24.093965681604</v>
       </c>
       <c r="S7">
-        <v>0.005777240000967375</v>
+        <v>0.01637106904411572</v>
       </c>
       <c r="T7">
-        <v>0.005777240000967375</v>
+        <v>0.02653911582658436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +903,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.082693175809901</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H8">
-        <v>8.082693175809901</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I8">
-        <v>0.9670677300145268</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J8">
-        <v>0.9670677300145268</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.570384905948909</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N8">
-        <v>8.570384905948909</v>
+        <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.6994370645599617</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P8">
-        <v>0.6994370645599617</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q8">
-        <v>69.27179159337743</v>
+        <v>0.1225012761035555</v>
       </c>
       <c r="R8">
-        <v>69.27179159337743</v>
+        <v>1.102511484932</v>
       </c>
       <c r="S8">
-        <v>0.6764030143120262</v>
+        <v>0.0007491208330031425</v>
       </c>
       <c r="T8">
-        <v>0.6764030143120262</v>
+        <v>0.001214398674979849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.082693175809901</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H9">
-        <v>8.082693175809901</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I9">
-        <v>0.9670677300145268</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J9">
-        <v>0.9670677300145268</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.486649506573794</v>
+        <v>0.123396</v>
       </c>
       <c r="N9">
-        <v>0.486649506573794</v>
+        <v>0.370188</v>
       </c>
       <c r="O9">
-        <v>0.03971591778932378</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P9">
-        <v>0.03971591778932378</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q9">
-        <v>3.933438645795261</v>
+        <v>0.028846858768</v>
       </c>
       <c r="R9">
-        <v>3.933438645795261</v>
+        <v>0.259621728912</v>
       </c>
       <c r="S9">
-        <v>0.03840798246196491</v>
+        <v>0.0001764045531373934</v>
       </c>
       <c r="T9">
-        <v>0.03840798246196491</v>
+        <v>0.0002859691603177779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1021,55 +1027,427 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2337746666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.7013240000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.02391642775070728</v>
+      </c>
+      <c r="J10">
+        <v>0.03527480283780177</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.104921</v>
+      </c>
+      <c r="N10">
+        <v>0.314763</v>
+      </c>
+      <c r="O10">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P10">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q10">
+        <v>0.02452787180133334</v>
+      </c>
+      <c r="R10">
+        <v>0.220750846212</v>
+      </c>
+      <c r="S10">
+        <v>0.0001499930477465109</v>
+      </c>
+      <c r="T10">
+        <v>0.0002431535079719081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>8.082693175809901</v>
-      </c>
-      <c r="H10">
-        <v>8.082693175809901</v>
-      </c>
-      <c r="I10">
-        <v>0.9670677300145268</v>
-      </c>
-      <c r="J10">
-        <v>0.9670677300145268</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.19622658865231</v>
-      </c>
-      <c r="N10">
-        <v>3.19622658865231</v>
-      </c>
-      <c r="O10">
-        <v>0.2608470176507144</v>
-      </c>
-      <c r="P10">
-        <v>0.2608470176507144</v>
-      </c>
-      <c r="Q10">
-        <v>25.83411883644218</v>
-      </c>
-      <c r="R10">
-        <v>25.83411883644218</v>
-      </c>
-      <c r="S10">
-        <v>0.2522567332405356</v>
-      </c>
-      <c r="T10">
-        <v>0.2522567332405356</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2337746666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.7013240000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.02391642775070728</v>
+      </c>
+      <c r="J11">
+        <v>0.03527480283780177</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N11">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P11">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q11">
+        <v>1.057991788074</v>
+      </c>
+      <c r="R11">
+        <v>6.347950728444001</v>
+      </c>
+      <c r="S11">
+        <v>0.006469840272704517</v>
+      </c>
+      <c r="T11">
+        <v>0.006992165667947877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.4422175</v>
+      </c>
+      <c r="H12">
+        <v>18.884435</v>
+      </c>
+      <c r="I12">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J12">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.451657</v>
+      </c>
+      <c r="N12">
+        <v>34.354971</v>
+      </c>
+      <c r="O12">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P12">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q12">
+        <v>108.1290361293975</v>
+      </c>
+      <c r="R12">
+        <v>648.7742167763849</v>
+      </c>
+      <c r="S12">
+        <v>0.6612315903436543</v>
+      </c>
+      <c r="T12">
+        <v>0.7146143690856201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.4422175</v>
+      </c>
+      <c r="H13">
+        <v>18.884435</v>
+      </c>
+      <c r="I13">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J13">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N13">
+        <v>1.572043</v>
+      </c>
+      <c r="O13">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P13">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q13">
+        <v>4.947857308450833</v>
+      </c>
+      <c r="R13">
+        <v>29.687143850705</v>
+      </c>
+      <c r="S13">
+        <v>0.03025717858934037</v>
+      </c>
+      <c r="T13">
+        <v>0.0326999116553021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.4422175</v>
+      </c>
+      <c r="H14">
+        <v>18.884435</v>
+      </c>
+      <c r="I14">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J14">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.123396</v>
+      </c>
+      <c r="N14">
+        <v>0.370188</v>
+      </c>
+      <c r="O14">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P14">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q14">
+        <v>1.16513187063</v>
+      </c>
+      <c r="R14">
+        <v>6.990791223780001</v>
+      </c>
+      <c r="S14">
+        <v>0.007125024205845982</v>
+      </c>
+      <c r="T14">
+        <v>0.007700244138266559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.4422175</v>
+      </c>
+      <c r="H15">
+        <v>18.884435</v>
+      </c>
+      <c r="I15">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J15">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.104921</v>
+      </c>
+      <c r="N15">
+        <v>0.314763</v>
+      </c>
+      <c r="O15">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P15">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q15">
+        <v>0.9906869023175</v>
+      </c>
+      <c r="R15">
+        <v>5.944121413905</v>
+      </c>
+      <c r="S15">
+        <v>0.006058256869765358</v>
+      </c>
+      <c r="T15">
+        <v>0.006547354170565217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.4422175</v>
+      </c>
+      <c r="H16">
+        <v>18.884435</v>
+      </c>
+      <c r="I16">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J16">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N16">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P16">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q16">
+        <v>42.73255403868375</v>
+      </c>
+      <c r="R16">
+        <v>170.930216154735</v>
+      </c>
+      <c r="S16">
+        <v>0.2613184735377743</v>
+      </c>
+      <c r="T16">
+        <v>0.1882768849570146</v>
       </c>
     </row>
   </sheetData>
